--- a/feeding/Кормление Корова 600 кг/Пит. кормов ИНСТИТУТ.xlsx
+++ b/feeding/Кормление Корова 600 кг/Пит. кормов ИНСТИТУТ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Трава" sheetId="25" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Барда+дробина+жом+маляса" sheetId="34" r:id="rId8"/>
     <sheet name="Молоко+корма твар. пох." sheetId="35" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="140">
   <si>
     <t>-</t>
   </si>
@@ -502,6 +502,24 @@
   </si>
   <si>
     <t>рибне жирне</t>
+  </si>
+  <si>
+    <t>Об.Эн. ВРХ</t>
+  </si>
+  <si>
+    <t>Об.Эн свині</t>
+  </si>
+  <si>
+    <t>СП</t>
+  </si>
+  <si>
+    <t>Сира клітк.</t>
+  </si>
+  <si>
+    <t>Віт. D</t>
+  </si>
+  <si>
+    <t>Віт. Е</t>
   </si>
 </sst>
 </file>
@@ -695,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -752,6 +770,9 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,37 +1142,37 @@
   <sheetData>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="26" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="20" t="s">
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1185,8 +1206,8 @@
       <c r="N4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -2631,24 +2652,24 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="2:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="12" t="s">
         <v>73</v>
       </c>
@@ -3468,8 +3489,8 @@
   </sheetPr>
   <dimension ref="B3:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:N35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,35 +3499,35 @@
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="26" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="26" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="26" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="2:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="14" t="s">
         <v>23</v>
       </c>
@@ -4798,30 +4819,30 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="12" t="s">
         <v>85</v>
       </c>
@@ -5824,188 +5845,192 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:H34"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="20" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="20" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.24</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4">
+        <v>2.82</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.98</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.84</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
-        <v>2.82</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2.98</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.65</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.84</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.34</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.63</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3.19</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.34</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1.74</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2.63</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>220</v>
+      </c>
+      <c r="D8" s="4">
+        <v>230</v>
+      </c>
+      <c r="E8" s="4">
+        <v>120</v>
+      </c>
+      <c r="F8" s="4">
+        <v>230</v>
+      </c>
+      <c r="G8" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>220</v>
-      </c>
-      <c r="E8" s="4">
-        <v>230</v>
-      </c>
-      <c r="F8" s="4">
-        <v>120</v>
-      </c>
-      <c r="G8" s="4">
-        <v>230</v>
-      </c>
-      <c r="H8" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>2</v>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
       </c>
       <c r="D9" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="4">
-        <v>7</v>
-      </c>
-      <c r="H9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>2</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -6014,159 +6039,159 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>2</v>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
       </c>
       <c r="E11" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G11" s="4">
-        <v>14</v>
-      </c>
-      <c r="H11" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>2</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>182</v>
       </c>
       <c r="D12" s="4">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E12" s="4">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="F12" s="4">
+        <v>188</v>
+      </c>
+      <c r="G12" s="4">
         <v>87</v>
       </c>
-      <c r="G12" s="4">
-        <v>188</v>
-      </c>
-      <c r="H12" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4">
+        <v>40</v>
+      </c>
+      <c r="F13" s="4">
+        <v>120</v>
+      </c>
+      <c r="G13" s="4">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4">
-        <v>40</v>
-      </c>
-      <c r="G13" s="4">
-        <v>120</v>
-      </c>
-      <c r="H13" s="4">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>2</v>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F14" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G14" s="4">
         <v>0.5</v>
       </c>
-      <c r="H14" s="4">
+    </row>
+    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="D15" s="4">
         <v>0.5</v>
       </c>
       <c r="E15" s="4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F15" s="4">
         <v>0.2</v>
       </c>
       <c r="G15" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
         <v>0.2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="D16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="F16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
         <v>0.5</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="D17" s="4">
         <v>0.5</v>
@@ -6178,412 +6203,397 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>2</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.3</v>
       </c>
       <c r="D18" s="4">
         <v>0.3</v>
       </c>
       <c r="E18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="4">
         <v>0.3</v>
       </c>
-      <c r="F18" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>2</v>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.2</v>
       </c>
       <c r="D19" s="4">
         <v>4.2</v>
       </c>
       <c r="E19" s="4">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="G19" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="H19" s="4">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>2</v>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.4</v>
       </c>
       <c r="D20" s="4">
         <v>0.4</v>
       </c>
       <c r="E20" s="4">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="F20" s="4">
         <v>1.3</v>
       </c>
       <c r="G20" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="H20" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>5</v>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4">
+        <v>0.3</v>
       </c>
       <c r="D22" s="4">
         <v>0.3</v>
       </c>
       <c r="E22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="4">
         <v>0.3</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>0.2</v>
       </c>
-      <c r="G22" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4">
+        <v>31</v>
+      </c>
+      <c r="G23" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="4">
-        <v>21</v>
-      </c>
-      <c r="E23" s="4">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="C24" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="4">
-        <v>31</v>
-      </c>
-      <c r="H23" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="G24" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="E25" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F25" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="G25" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="G26" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="H26" s="4">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="C28" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="D28" s="4">
         <v>0.01</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.06</v>
       </c>
       <c r="E28" s="4">
         <v>0.01</v>
       </c>
       <c r="F28" s="4">
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
       <c r="G28" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="H28" s="4">
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="8" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G29" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="C30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
         <v>0.1</v>
       </c>
-      <c r="G29" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H29" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="F32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H31" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6596,8 +6606,8 @@
   </sheetPr>
   <dimension ref="B1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6607,30 +6617,30 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="20" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="19" t="s">
         <v>96</v>
       </c>
@@ -6652,7 +6662,7 @@
       <c r="J3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="21"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -7633,38 +7643,38 @@
   </sheetPr>
   <dimension ref="B1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1" t="s">
         <v>84</v>
       </c>
@@ -7686,7 +7696,7 @@
       <c r="J3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -8663,66 +8673,66 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="B2:J35"/>
+  <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -9578,35 +9588,6 @@
       </c>
       <c r="J34" s="4">
         <v>44.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9633,74 +9614,74 @@
   </sheetPr>
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="33" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="18" t="s">
         <v>124</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="17" t="s">
         <v>131</v>
       </c>
@@ -9710,7 +9691,7 @@
       <c r="M5" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="N5" s="32"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
